--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76615.99205043582</v>
+        <v>68971.93019640556</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219457</v>
+        <v>33937088.13219456</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3567223.665556821</v>
+        <v>3567223.66555682</v>
       </c>
     </row>
     <row r="11">
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="F8" t="n">
-        <v>30.7078552878329</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796766</v>
+        <v>74.18125311796771</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>30.70785528783204</v>
       </c>
       <c r="V8" t="n">
-        <v>119.0839105424621</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>119.0839105424621</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>119.0839105424621</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>104.8891084058006</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>22.33910840579977</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424621</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="W9" t="n">
-        <v>119.0839105424621</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>119.0839105424621</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
     </row>
     <row r="10">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>104.8891084057998</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.0839105424621</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>104.8891084058006</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>119.0839105424621</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.0839105424621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>156.1674052448249</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>297.5204339023657</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>85.1488807209182</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>185.3990345521129</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>234.3599588242726</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>170.845427842834</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1767,16 +1767,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>126.0897993949332</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -1818,16 +1818,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>232.7677427701458</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.14800738068081</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1855,13 +1855,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>353.0470489228749</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2010,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>53.19117033386334</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>170.8165721768278</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>235.4434025722069</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>168.1992824961052</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>74.42811009354939</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2298,7 +2298,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>169.2166996703681</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>327.4098471961896</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2326,7 +2326,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>195.3505139659487</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2481,19 +2481,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>74.42811009354939</v>
       </c>
       <c r="H25" t="n">
-        <v>60.07073011995501</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>205.5539892783817</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>56.10189147508265</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2718,19 +2718,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>49.34995949258575</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>97.11053381724831</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>76.22909826824832</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2800,7 +2800,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>146.6753150960243</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>146.8043639280754</v>
+        <v>51.77925078256501</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3040,13 +3040,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>222.0215175726363</v>
+        <v>149.6157531058528</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>30.54231102287983</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>84.17781972392747</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3277,10 +3277,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>65.45709821928106</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>128.9395398500424</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,22 +3426,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>104.8528596352493</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>6.12293108676087</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3514,13 +3514,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>31.08909919238713</v>
+        <v>182.5699011511863</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>104.8528596352489</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>203.8897703989949</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>420.6863977793314</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -3802,7 +3802,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>368.5724630577456</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>169.5679351103341</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.4644955258587</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>187.1577516233122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>94.9744529288036</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>57.0922853105867</v>
       </c>
       <c r="E46" t="n">
-        <v>103.235833683887</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.54474848767262</v>
+        <v>250.1002694948336</v>
       </c>
       <c r="C8" t="n">
-        <v>40.54474848767262</v>
+        <v>250.1002694948336</v>
       </c>
       <c r="D8" t="n">
-        <v>40.54474848767262</v>
+        <v>250.1002694948336</v>
       </c>
       <c r="E8" t="n">
-        <v>40.54474848767262</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396968</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396968</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396968</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585602</v>
+        <v>23.57954741585568</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558094</v>
+        <v>55.41632306558036</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318081</v>
+        <v>103.1313969318071</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183111</v>
+        <v>162.3261653183098</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590954</v>
+        <v>228.1917507590935</v>
       </c>
       <c r="N8" t="n">
-        <v>295.123110232661</v>
+        <v>295.1231102326587</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336459</v>
+        <v>358.324495033643</v>
       </c>
       <c r="P8" t="n">
-        <v>412.265414745571</v>
+        <v>412.2654147455677</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245056</v>
+        <v>452.7727990245021</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698484</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="S8" t="n">
-        <v>401.4050834648305</v>
+        <v>401.4050834648268</v>
       </c>
       <c r="T8" t="n">
-        <v>401.4050834648305</v>
+        <v>401.4050834648268</v>
       </c>
       <c r="U8" t="n">
-        <v>401.4050834648305</v>
+        <v>370.387047820552</v>
       </c>
       <c r="V8" t="n">
-        <v>281.1183051391112</v>
+        <v>370.387047820552</v>
       </c>
       <c r="W8" t="n">
-        <v>160.8315268133919</v>
+        <v>370.387047820552</v>
       </c>
       <c r="X8" t="n">
-        <v>40.54474848767262</v>
+        <v>250.1002694948336</v>
       </c>
       <c r="Y8" t="n">
-        <v>40.54474848767262</v>
+        <v>250.1002694948336</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115.4753071926905</v>
+        <v>115.4753071926896</v>
       </c>
       <c r="C9" t="n">
-        <v>9.526712843396968</v>
+        <v>115.4753071926896</v>
       </c>
       <c r="D9" t="n">
-        <v>9.526712843396968</v>
+        <v>115.4753071926896</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396968</v>
+        <v>115.4753071926896</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396968</v>
+        <v>32.0914688088512</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396968</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396968</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="I9" t="n">
-        <v>42.50045791160458</v>
+        <v>42.50045791160446</v>
       </c>
       <c r="J9" t="n">
-        <v>61.46222338483302</v>
+        <v>160.393529348641</v>
       </c>
       <c r="K9" t="n">
-        <v>93.87090076414927</v>
+        <v>205.5497300437125</v>
       </c>
       <c r="L9" t="n">
-        <v>137.4483669798391</v>
+        <v>249.127196259402</v>
       </c>
       <c r="M9" t="n">
-        <v>194.5479887761026</v>
+        <v>299.980043916818</v>
       </c>
       <c r="N9" t="n">
-        <v>246.7467599936399</v>
+        <v>352.178815134355</v>
       </c>
       <c r="O9" t="n">
-        <v>294.4984377999731</v>
+        <v>399.9304929406878</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8233691018356</v>
+        <v>438.25542424255</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.4425707328109</v>
+        <v>463.8746258735251</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698484</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698484</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="T9" t="n">
-        <v>476.3356421698484</v>
+        <v>356.0488638441263</v>
       </c>
       <c r="U9" t="n">
-        <v>476.3356421698484</v>
+        <v>356.0488638441263</v>
       </c>
       <c r="V9" t="n">
-        <v>356.0488638441291</v>
+        <v>235.762085518408</v>
       </c>
       <c r="W9" t="n">
-        <v>235.7620855184098</v>
+        <v>235.762085518408</v>
       </c>
       <c r="X9" t="n">
-        <v>115.4753071926905</v>
+        <v>235.762085518408</v>
       </c>
       <c r="Y9" t="n">
-        <v>115.4753071926905</v>
+        <v>115.4753071926896</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396968</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396968</v>
+        <v>356.0488638441263</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396968</v>
+        <v>235.762085518408</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396968</v>
+        <v>235.762085518408</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396968</v>
+        <v>115.4753071926896</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396968</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396968</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396968</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011152</v>
+        <v>21.42271513642515</v>
       </c>
       <c r="K10" t="n">
-        <v>127.5511863760672</v>
+        <v>139.3157865734617</v>
       </c>
       <c r="L10" t="n">
-        <v>152.5669021405247</v>
+        <v>164.331502337919</v>
       </c>
       <c r="M10" t="n">
-        <v>178.9424669519799</v>
+        <v>190.7070671493741</v>
       </c>
       <c r="N10" t="n">
-        <v>204.6908797845048</v>
+        <v>216.4554799818988</v>
       </c>
       <c r="O10" t="n">
-        <v>240.5494992957734</v>
+        <v>240.5494992957716</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328109</v>
+        <v>358.4425707328082</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698484</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698484</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698484</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="T10" t="n">
-        <v>476.3356421698484</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="U10" t="n">
-        <v>356.0488638441291</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="V10" t="n">
-        <v>250.1002694948356</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="W10" t="n">
-        <v>129.8134911691163</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="X10" t="n">
-        <v>129.8134911691163</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396968</v>
+        <v>476.3356421698447</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1614.480062263097</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C11" t="n">
-        <v>1614.480062263097</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D11" t="n">
-        <v>1178.570277437541</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E11" t="n">
-        <v>744.7955325958366</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
@@ -5038,7 +5038,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
         <v>276.0532770435809</v>
@@ -5047,7 +5047,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5062,7 +5062,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
@@ -5074,19 +5074,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>2319.861207662534</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W11" t="n">
-        <v>1915.005753073567</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X11" t="n">
-        <v>1614.480062263097</v>
+        <v>874.1756481082185</v>
       </c>
       <c r="Y11" t="n">
-        <v>1614.480062263097</v>
+        <v>874.1756481082185</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.655226289377</v>
+        <v>790.1897768536844</v>
       </c>
       <c r="C13" t="n">
-        <v>299.093514772602</v>
+        <v>617.6280653369093</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2155219741246</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895474</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895474</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895474</v>
@@ -5214,10 +5214,10 @@
         <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5232,19 +5232,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X13" t="n">
-        <v>890.8935156942559</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083642</v>
+        <v>982.0083955726716</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1782.900983623584</v>
+        <v>553.6553341406732</v>
       </c>
       <c r="C14" t="n">
-        <v>1344.758510807007</v>
+        <v>553.6553341406732</v>
       </c>
       <c r="D14" t="n">
-        <v>908.8487259814518</v>
+        <v>553.6553341406732</v>
       </c>
       <c r="E14" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V14" t="n">
-        <v>2187.756438212551</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W14" t="n">
-        <v>1782.900983623584</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X14" t="n">
-        <v>1782.900983623584</v>
+        <v>961.9414578410198</v>
       </c>
       <c r="Y14" t="n">
-        <v>1782.900983623584</v>
+        <v>553.6553341406732</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765398</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.6552262893761</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C16" t="n">
-        <v>471.6552262893761</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D16" t="n">
-        <v>471.6552262893761</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E16" t="n">
-        <v>471.6552262893761</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
         <v>344.2917925571204</v>
@@ -5430,10 +5430,10 @@
         <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5448,13 +5448,13 @@
         <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180194</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774551</v>
+        <v>1928.945530822402</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X16" t="n">
-        <v>890.893515694255</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083632</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2052.622535079674</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="C17" t="n">
-        <v>1614.480062263097</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D17" t="n">
-        <v>1178.570277437541</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E17" t="n">
-        <v>744.7955325958366</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.25688596925</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V17" t="n">
-        <v>2101.25688596925</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W17" t="n">
-        <v>2101.25688596925</v>
+        <v>1751.47677540147</v>
       </c>
       <c r="X17" t="n">
-        <v>2101.25688596925</v>
+        <v>1751.47677540147</v>
       </c>
       <c r="Y17" t="n">
-        <v>2101.25688596925</v>
+        <v>1343.190651701123</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,13 +5585,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851411</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C19" t="n">
-        <v>443.520053268366</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D19" t="n">
-        <v>277.6420604698887</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E19" t="n">
-        <v>223.9136055871985</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M19" t="n">
-        <v>1236.93553127931</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N19" t="n">
-        <v>1467.692251924754</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498297</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.89643867598</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1801.111822757573</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1529.085418343864</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.32005419002</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041283</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1355.033554032792</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C20" t="n">
-        <v>916.8910812162151</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D20" t="n">
-        <v>480.9812963906596</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E20" t="n">
         <v>47.20655154895474</v>
@@ -5749,13 +5749,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867025</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W20" t="n">
-        <v>1592.855172792597</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X20" t="n">
-        <v>1592.855172792597</v>
+        <v>911.6485948504392</v>
       </c>
       <c r="Y20" t="n">
-        <v>1592.855172792597</v>
+        <v>911.6485948504392</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030332</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
         <v>79.1492015823585</v>
@@ -5873,10 +5873,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>732.1113136517137</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C22" t="n">
-        <v>559.5496021349386</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D22" t="n">
-        <v>393.6716093364613</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E22" t="n">
         <v>223.9136055871985</v>
@@ -5916,16 +5916,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>828.1746199579906</v>
+        <v>733.4227107706877</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376305</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P22" t="n">
         <v>2105.896438675982</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1668.767762136888</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W22" t="n">
-        <v>1396.74135772318</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1151.349603056593</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.9299323707007</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1624.755105488881</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C23" t="n">
-        <v>1186.612632672305</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D23" t="n">
-        <v>750.7028478467491</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6019,22 +6019,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W23" t="n">
-        <v>1955.47212285877</v>
+        <v>1329.544932891434</v>
       </c>
       <c r="X23" t="n">
-        <v>1955.47212285877</v>
+        <v>1329.544932891434</v>
       </c>
       <c r="Y23" t="n">
-        <v>1955.47212285877</v>
+        <v>921.2588091910869</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E24" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,10 +6074,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.0817647851416</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C25" t="n">
-        <v>443.5200532683665</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D25" t="n">
-        <v>277.6420604698892</v>
+        <v>299.093514772602</v>
       </c>
       <c r="E25" t="n">
-        <v>107.8840567206265</v>
+        <v>299.093514772602</v>
       </c>
       <c r="F25" t="n">
-        <v>107.8840567206265</v>
+        <v>122.3864607343582</v>
       </c>
       <c r="G25" t="n">
-        <v>107.8840567206265</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L25" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M25" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N25" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041287</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1344.758510807007</v>
+        <v>1190.980360647176</v>
       </c>
       <c r="C26" t="n">
-        <v>1344.758510807007</v>
+        <v>752.8378878305998</v>
       </c>
       <c r="D26" t="n">
-        <v>908.8487259814518</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E26" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435803</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U26" t="n">
-        <v>2112.230915462148</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V26" t="n">
-        <v>1749.613965395974</v>
+        <v>2004.12193893649</v>
       </c>
       <c r="W26" t="n">
-        <v>1344.758510807007</v>
+        <v>1599.266484347523</v>
       </c>
       <c r="X26" t="n">
-        <v>1344.758510807007</v>
+        <v>1599.266484347523</v>
       </c>
       <c r="Y26" t="n">
-        <v>1344.758510807007</v>
+        <v>1190.980360647176</v>
       </c>
     </row>
     <row r="27">
@@ -6284,31 +6284,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
         <v>551.5786779960906</v>
@@ -6360,58 +6360,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.0817647851411</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C28" t="n">
-        <v>443.520053268366</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364612</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871985</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092371</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827552</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789086</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.320157362629</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540313</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
         <v>2118.080353351143</v>
@@ -6420,16 +6420,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.32005419002</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041283</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2024.257796809404</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="C29" t="n">
-        <v>1586.115323992828</v>
+        <v>1300.497463086501</v>
       </c>
       <c r="D29" t="n">
-        <v>1150.205539167272</v>
+        <v>864.5876782609453</v>
       </c>
       <c r="E29" t="n">
         <v>716.4307943255671</v>
@@ -6466,10 +6466,10 @@
         <v>276.0532770435808</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6499,16 +6499,16 @@
         <v>2101.256885969251</v>
       </c>
       <c r="V29" t="n">
-        <v>2101.256885969251</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W29" t="n">
-        <v>2101.256885969251</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="X29" t="n">
-        <v>2101.256885969251</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="Y29" t="n">
-        <v>2101.256885969251</v>
+        <v>1738.639935903077</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765403</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
         <v>79.1492015823585</v>
@@ -6581,13 +6581,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>663.4738450083642</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C31" t="n">
-        <v>515.1866087173789</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="D31" t="n">
-        <v>349.3086159189016</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E31" t="n">
-        <v>179.5506121696388</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F31" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G31" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1106.33113894078</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.355695376305</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N31" t="n">
-        <v>1539.854607180195</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1849.01926465316</v>
+        <v>1934.028006962829</v>
       </c>
       <c r="C32" t="n">
-        <v>1410.876791836584</v>
+        <v>1495.885534146253</v>
       </c>
       <c r="D32" t="n">
-        <v>974.9670070110283</v>
+        <v>1059.975749320697</v>
       </c>
       <c r="E32" t="n">
-        <v>541.1922621693234</v>
+        <v>626.2010044789922</v>
       </c>
       <c r="F32" t="n">
-        <v>541.1922621693234</v>
+        <v>198.3335748882</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V32" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W32" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X32" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y32" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
     </row>
     <row r="33">
@@ -6758,16 +6758,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
         <v>79.1492015823585</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>859.4385509106165</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C34" t="n">
-        <v>686.8768393938415</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D34" t="n">
-        <v>520.9988465953642</v>
+        <v>450.2037719866647</v>
       </c>
       <c r="E34" t="n">
-        <v>520.9988465953642</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F34" t="n">
-        <v>344.2917925571204</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G34" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L34" t="n">
-        <v>688.1212571728194</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M34" t="n">
-        <v>818.7256495113488</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N34" t="n">
-        <v>1120.185357954413</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527957</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675982</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W34" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X34" t="n">
-        <v>1051.257169629604</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.257169629604</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1355.033554032792</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="C35" t="n">
-        <v>916.8910812162151</v>
+        <v>1410.876791836584</v>
       </c>
       <c r="D35" t="n">
-        <v>480.9812963906596</v>
+        <v>974.9670070110287</v>
       </c>
       <c r="E35" t="n">
-        <v>47.20655154895473</v>
+        <v>541.1922621693238</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895473</v>
+        <v>113.3248325785316</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001357</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6952,37 +6952,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T35" t="n">
-        <v>2189.619248218046</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U35" t="n">
-        <v>2189.619248218046</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V35" t="n">
-        <v>2189.619248218046</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="W35" t="n">
-        <v>2189.619248218046</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="X35" t="n">
-        <v>2189.619248218046</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="Y35" t="n">
-        <v>1781.3331245177</v>
+        <v>1849.019264653161</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>930.5806015906844</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>762.8256627965029</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I36" t="n">
-        <v>765.0997489345762</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>858.9930882810434</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S36" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T36" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U36" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V36" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,52 +7071,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>896.8524940391952</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C37" t="n">
-        <v>724.2907825224202</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="D37" t="n">
-        <v>558.4127897239429</v>
+        <v>450.2037719866652</v>
       </c>
       <c r="E37" t="n">
-        <v>388.6547859746801</v>
+        <v>450.2037719866652</v>
       </c>
       <c r="F37" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J37" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>413.3628026016838</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
-        <v>550.4276429928788</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N37" t="n">
-        <v>1120.185357954413</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R37" t="n">
         <v>2360.327577447737</v>
@@ -7125,22 +7125,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V37" t="n">
-        <v>1833.50894252437</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.482538110662</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X37" t="n">
-        <v>1316.090783444074</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>1088.671112758182</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1785.939375850675</v>
+        <v>1529.172552373862</v>
       </c>
       <c r="C38" t="n">
-        <v>1347.796903034099</v>
+        <v>1529.172552373862</v>
       </c>
       <c r="D38" t="n">
-        <v>911.8871182085431</v>
+        <v>1093.262767548307</v>
       </c>
       <c r="E38" t="n">
-        <v>478.1123733668383</v>
+        <v>659.4880227066019</v>
       </c>
       <c r="F38" t="n">
-        <v>478.1123733668383</v>
+        <v>231.6205931158096</v>
       </c>
       <c r="G38" t="n">
-        <v>78.60968204631547</v>
+        <v>231.6205931158096</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J38" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
         <v>805.4408022867025</v>
@@ -7204,22 +7204,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V38" t="n">
-        <v>1785.939375850675</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W38" t="n">
-        <v>1785.939375850675</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X38" t="n">
-        <v>1785.939375850675</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="Y38" t="n">
-        <v>1785.939375850675</v>
+        <v>1955.47212285877</v>
       </c>
     </row>
     <row r="39">
@@ -7232,31 +7232,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
         <v>551.5786779960906</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>927.5506608361497</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C40" t="n">
-        <v>754.9889493193747</v>
+        <v>510.1697853555977</v>
       </c>
       <c r="D40" t="n">
-        <v>589.1109565208974</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E40" t="n">
-        <v>419.3529527716346</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F40" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>358.0754347909401</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092379</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7368,16 +7368,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W40" t="n">
-        <v>1552.738213270316</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X40" t="n">
-        <v>1346.788950241029</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>1119.369279555137</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>908.8487259814518</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="C41" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.25688596925</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V41" t="n">
-        <v>1738.639935903077</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W41" t="n">
-        <v>1333.78448131411</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="X41" t="n">
-        <v>1333.78448131411</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="Y41" t="n">
-        <v>1333.78448131411</v>
+        <v>1154.573267142144</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906846</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068463</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>762.825662796503</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630993</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345754</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810424</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>896.8524940391951</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>724.29078252242</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D43" t="n">
-        <v>558.4127897239428</v>
+        <v>616.081764785142</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>446.3237610358793</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
@@ -7575,46 +7575,46 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>862.0820538119945</v>
       </c>
       <c r="M43" t="n">
-        <v>1412.355695376305</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180194</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2120.464450653939</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>2120.464450653939</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1833.50894252437</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.482538110662</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>1316.090783444074</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>1088.671112758182</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>635.7574768324192</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="C44" t="n">
-        <v>446.7092428694776</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
         <v>2043.069798152528</v>
@@ -7681,19 +7681,19 @@
         <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>1889.485634438363</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="V44" t="n">
-        <v>1889.485634438363</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="W44" t="n">
-        <v>1889.485634438363</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="X44" t="n">
-        <v>1470.343171017674</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="Y44" t="n">
-        <v>1062.057047317327</v>
+        <v>2052.622535079674</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
         <v>341.0245550495863</v>
@@ -7718,7 +7718,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
         <v>47.20655154895473</v>
@@ -7730,22 +7730,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
         <v>1614.947661807679</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>894.4683967363985</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C46" t="n">
-        <v>721.9066852196235</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D46" t="n">
-        <v>556.0286924211462</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E46" t="n">
-        <v>451.7500725384321</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F46" t="n">
-        <v>275.0430185001883</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895473</v>
@@ -7809,22 +7809,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>393.4422361027639</v>
       </c>
       <c r="L46" t="n">
-        <v>688.1212571728194</v>
+        <v>935.5229194890228</v>
       </c>
       <c r="M46" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N46" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7839,19 +7839,19 @@
         <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>2118.080353351143</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1831.124845221573</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1559.098440807865</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1313.706686141277</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1086.287015455386</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
   </sheetData>
@@ -8531,16 +8531,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>99.93061208465481</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>12.8762861775308</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>6.309872867522316</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946644</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>99.33766198190369</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>12.19777046368682</v>
+        <v>0.3143359208629306</v>
       </c>
       <c r="P10" t="n">
-        <v>98.52803488912417</v>
+        <v>98.52803488912338</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340665</v>
+        <v>104.8520877340656</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464598</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464593</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -9333,13 +9333,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>104.3008170116714</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>22.56277315124908</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9564,19 +9564,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>141.4680432173446</v>
+        <v>45.75904403825086</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9798,25 +9798,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>141.4680432173443</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7304232042861</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M31" t="n">
-        <v>177.1920849464602</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>175.7179764032071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,19 +10746,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>6.525705103702649</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464607</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>69.27619576520624</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11223,16 +11223,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>175.7179764032072</v>
       </c>
       <c r="M43" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11457,25 +11457,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>105.0002374943213</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>141.4680432173443</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23029,10 +23029,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>310.3530868508266</v>
       </c>
       <c r="F8" t="n">
-        <v>392.8809000070514</v>
+        <v>304.5048447524231</v>
       </c>
       <c r="G8" t="n">
         <v>397.0049566522158</v>
@@ -23077,16 +23077,16 @@
         <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>256.599767943293</v>
+        <v>225.891912655461</v>
       </c>
       <c r="V8" t="n">
-        <v>239.9068700230496</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006149</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440203</v>
+        <v>295.8671282440212</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23102,7 +23102,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5027881459235601</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -23111,13 +23111,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>61.98940297845314</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809189</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.0553096665696</v>
+        <v>59.05530966656963</v>
       </c>
       <c r="T9" t="n">
-        <v>128.0597233353587</v>
+        <v>8.9758127928975</v>
       </c>
       <c r="U9" t="n">
         <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615855</v>
+        <v>78.04243221615945</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167583</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>34.23485086104671</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>6.137010886110232</v>
       </c>
     </row>
     <row r="10">
@@ -23181,25 +23181,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>51.75218385914613</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>45.13530232803134</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>55.85607295540015</v>
       </c>
       <c r="G10" t="n">
-        <v>163.7654023385416</v>
+        <v>58.87629393274185</v>
       </c>
       <c r="H10" t="n">
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742785</v>
+        <v>82.66219243742789</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616399</v>
+        <v>13.56162857616405</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
@@ -23235,19 +23235,19 @@
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577333</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>179.1968446424733</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>150.2222298271093</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.0615634365707</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>265.8691695352338</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>117.4306048841167</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.91154299085191</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>39.74643942691992</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>195.0770385690152</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>188.1453527226777</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>48.85018410292818</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>36.53839759942554</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>373.8885673993778</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>47.75985112020209</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8692533779068</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>113.2693808714461</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>186.5931722078518</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>246.7517562903772</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>89.79110277694313</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>114.8692533779058</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.62672758386913</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -24223,7 +24223,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>205.4563860771283</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>88.66565849005737</v>
       </c>
       <c r="H25" t="n">
-        <v>70.94988989452224</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>50.92599528531943</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>302.8888890904291</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8692533779068</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>70.9498898945218</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>345.8074765118104</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>282.7616822972634</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.03173047353195</v>
+        <v>119.0568436190423</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>173.4861468346813</v>
+        <v>245.8919113014648</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>137.5181126888903</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>158.7600173959942</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>330.0505661880365</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>80.71399916553648</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>70.08712386261202</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>277.963021961513</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>235.9352367491415</v>
+        <v>84.4544347903423</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.98323476635845</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>39.04806672092678</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.350177000727285</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>32.23443698533146</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5.372048387527258</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>2.360256329768703</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>246.6032964650987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>161.5055316348976</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25930,10 +25930,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>107.1269275599058</v>
       </c>
       <c r="E46" t="n">
-        <v>64.82459002788315</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90927.47733675301</v>
+        <v>90927.47733675232</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>401422.6990081164</v>
+        <v>401422.6990081165</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>401422.6990081163</v>
+        <v>401422.6990081165</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>401422.6990081163</v>
+        <v>401422.6990081165</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>401422.6990081164</v>
+        <v>401422.6990081165</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>401422.6990081164</v>
+        <v>401422.6990081165</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>401422.6990081163</v>
+        <v>401422.6990081164</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>401422.6990081164</v>
+        <v>401422.6990081165</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>401422.6990081163</v>
+        <v>401422.6990081165</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>401422.6990081164</v>
+        <v>401422.6990081163</v>
       </c>
     </row>
   </sheetData>
@@ -26319,19 +26319,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>36428.59575072134</v>
+        <v>36428.59575072106</v>
       </c>
       <c r="E2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
       <c r="F2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
       <c r="G2" t="n">
         <v>165162.4498658581</v>
       </c>
       <c r="H2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="I2" t="n">
         <v>165162.4498658581</v>
@@ -26343,16 +26343,16 @@
         <v>165162.4498658582</v>
       </c>
       <c r="L2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
       <c r="M2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
       <c r="N2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
       <c r="O2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
       <c r="P2" t="n">
         <v>165162.4498658581</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.467573059</v>
+        <v>117708.4675730581</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180431</v>
+        <v>439858.245018044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310227</v>
+        <v>30139.06600310205</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597477</v>
+        <v>117374.581559748</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6030.684378526935</v>
+        <v>6030.684378526885</v>
       </c>
       <c r="E4" t="n">
+        <v>16511.41869660762</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16511.41869660762</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16511.41869660762</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16511.41869660762</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16511.4186966076</v>
+      </c>
+      <c r="J4" t="n">
         <v>16511.41869660761</v>
       </c>
-      <c r="F4" t="n">
-        <v>16511.4186966076</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16511.4186966076</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>16511.41869660761</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16511.41869660761</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16511.4186966076</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16511.41869660762</v>
       </c>
       <c r="L4" t="n">
         <v>16511.41869660761</v>
       </c>
       <c r="M4" t="n">
-        <v>16511.41869660763</v>
+        <v>16511.41869660762</v>
       </c>
       <c r="N4" t="n">
         <v>16511.41869660761</v>
       </c>
       <c r="O4" t="n">
+        <v>16511.41869660761</v>
+      </c>
+      <c r="P4" t="n">
         <v>16511.4186966076</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16511.41869660761</v>
       </c>
     </row>
     <row r="5">
@@ -26475,25 +26475,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239246</v>
+        <v>42922.56227239239</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963782</v>
@@ -26502,13 +26502,13 @@
         <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-130233.1184732571</v>
+        <v>-131400.0172694075</v>
       </c>
       <c r="E6" t="n">
-        <v>-337258.2950584304</v>
+        <v>-337812.1755016532</v>
       </c>
       <c r="F6" t="n">
-        <v>102599.9499596127</v>
+        <v>102046.0695163908</v>
       </c>
       <c r="G6" t="n">
-        <v>102599.9499596127</v>
+        <v>102046.0695163907</v>
       </c>
       <c r="H6" t="n">
-        <v>102599.9499596128</v>
+        <v>102046.0695163908</v>
       </c>
       <c r="I6" t="n">
-        <v>102599.9499596127</v>
+        <v>102046.0695163908</v>
       </c>
       <c r="J6" t="n">
-        <v>102599.9499596127</v>
+        <v>102046.0695163908</v>
       </c>
       <c r="K6" t="n">
-        <v>102599.9499596127</v>
+        <v>102046.0695163908</v>
       </c>
       <c r="L6" t="n">
-        <v>72460.88395651043</v>
+        <v>71907.00351328874</v>
       </c>
       <c r="M6" t="n">
-        <v>-14774.63160013504</v>
+        <v>-15328.51204335721</v>
       </c>
       <c r="N6" t="n">
-        <v>102599.9499596127</v>
+        <v>102046.0695163908</v>
       </c>
       <c r="O6" t="n">
-        <v>102599.9499596127</v>
+        <v>102046.0695163908</v>
       </c>
       <c r="P6" t="n">
-        <v>102599.9499596127</v>
+        <v>102046.0695163908</v>
       </c>
     </row>
   </sheetData>
@@ -26743,25 +26743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480567</v>
+        <v>94.25048217480497</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
         <v>466.7019280932212</v>
@@ -26770,16 +26770,16 @@
         <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26795,25 +26795,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424621</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619342</v>
@@ -26822,13 +26822,13 @@
         <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
         <v>590.0818943619341</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480567</v>
+        <v>94.25048217480497</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184155</v>
+        <v>372.4514459184162</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424621</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194722</v>
+        <v>470.9979838194731</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424621</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M4" t="n">
-        <v>470.997983819472</v>
+        <v>470.9979838194732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424621</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194722</v>
+        <v>470.9979838194731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529873</v>
+        <v>0.3788964107529845</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866624032</v>
+        <v>3.880372866624004</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555456</v>
+        <v>14.60740387555445</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214639</v>
+        <v>32.15835924214615</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932035</v>
+        <v>48.19704430931999</v>
       </c>
       <c r="L8" t="n">
-        <v>59.7926953399021</v>
+        <v>59.79269533990166</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463053</v>
+        <v>66.53089438463005</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168247</v>
+        <v>67.60743381168197</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725744</v>
+        <v>63.83978262725697</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679306</v>
+        <v>54.48577748679266</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670169</v>
+        <v>40.91654977670139</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196236</v>
+        <v>23.80085166196218</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033707</v>
+        <v>8.634101960033643</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071203</v>
+        <v>1.658619038071191</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023898</v>
+        <v>0.03031171286023876</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250537</v>
+        <v>0.2027274522250522</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857756</v>
+        <v>1.957920393857741</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888911</v>
+        <v>6.97987061388886</v>
       </c>
       <c r="J9" t="n">
-        <v>19.1532984578065</v>
+        <v>19.15329845780636</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568851</v>
+        <v>32.73603775688485</v>
       </c>
       <c r="L9" t="n">
-        <v>44.0176426421109</v>
+        <v>44.01764264211057</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526908</v>
+        <v>51.3665127852687</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286605</v>
+        <v>52.72603153286566</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619512</v>
+        <v>48.23401798619476</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006311</v>
+        <v>38.71205182006283</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542966</v>
+        <v>25.87798144542947</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779764</v>
+        <v>12.58688514779755</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531149</v>
+        <v>3.765573509531121</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457205</v>
+        <v>0.8171338973457145</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322722</v>
+        <v>0.01333733238322712</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889938</v>
+        <v>0.1699598858889926</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540328</v>
+        <v>1.511097894540317</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643561</v>
+        <v>5.111157295643523</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235186</v>
+        <v>12.01616393235177</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055764</v>
+        <v>19.74624856055749</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207823</v>
+        <v>25.26839976207804</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803564</v>
+        <v>26.64198465803544</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063123</v>
+        <v>26.00849781063103</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547342</v>
+        <v>24.02305732547325</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333794</v>
+        <v>20.55587565333778</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839566</v>
+        <v>14.23182280839555</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517847</v>
+        <v>7.642014505517791</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083646</v>
+        <v>2.961937284083624</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075188</v>
+        <v>0.7261922397075135</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308765</v>
+        <v>0.009270539230308695</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699081</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916787</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32548,7 +32548,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33116,28 +33116,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33517,7 +33517,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916796</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34538,28 +34538,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642316</v>
+        <v>14.19478239642305</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214639</v>
+        <v>32.15835924214615</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932035</v>
+        <v>48.19704430931998</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990208</v>
+        <v>59.79269533990167</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463053</v>
+        <v>66.53089438463005</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168248</v>
+        <v>67.607433811682</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725742</v>
+        <v>63.83978262725691</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679304</v>
+        <v>54.48577748679264</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670169</v>
+        <v>40.9165497767014</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196238</v>
+        <v>23.80085166196221</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.30681320020972</v>
+        <v>33.30681320020967</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780651</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568851</v>
+        <v>45.61232393441566</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211091</v>
+        <v>44.01764264211056</v>
       </c>
       <c r="M9" t="n">
-        <v>57.6763856527914</v>
+        <v>51.3665127852687</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286605</v>
+        <v>52.72603153286565</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619511</v>
+        <v>48.23401798619477</v>
       </c>
       <c r="P9" t="n">
-        <v>38.7120518200631</v>
+        <v>38.71205182006281</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542967</v>
+        <v>25.8779814454295</v>
       </c>
       <c r="R9" t="n">
-        <v>119.0839105424621</v>
+        <v>12.58688514779755</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143253</v>
+        <v>12.01616393235177</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055763</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207822</v>
+        <v>25.26839976207805</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803562</v>
+        <v>26.64198465803543</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063121</v>
+        <v>26.00849781063104</v>
       </c>
       <c r="O10" t="n">
-        <v>36.22082778916024</v>
+        <v>24.33739324633618</v>
       </c>
       <c r="P10" t="n">
-        <v>119.0839105424621</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424621</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35427,13 +35427,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712369</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
@@ -35588,7 +35588,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -35652,7 +35652,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35749,7 +35749,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
@@ -35813,7 +35813,7 @@
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712365</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
@@ -35825,7 +35825,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785941</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -35889,7 +35889,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35898,7 +35898,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>233.0875966115598</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>124.3496985832526</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36123,19 +36123,19 @@
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062841</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36284,19 +36284,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>266.5900650540092</v>
+        <v>170.8810658749154</v>
       </c>
       <c r="M22" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
         <v>240.36368292423</v>
@@ -36354,25 +36354,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811317</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>260.4234789221541</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -36600,10 +36600,10 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>281.8524450409507</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>139.7481869072826</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36928,7 +36928,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M31" t="n">
-        <v>309.1157135712374</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>304.5047560030955</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
@@ -37247,7 +37247,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37320,7 +37320,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184536</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916878</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37399,16 +37399,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,19 +37466,19 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>138.4493337284798</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512705</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
@@ -37487,7 +37487,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37563,7 +37563,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
         <v>117.855135640546</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>167.0540751263761</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207615</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37873,16 +37873,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>300.8399982398718</v>
       </c>
       <c r="M43" t="n">
-        <v>309.1157135712365</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
@@ -37961,7 +37961,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38095,13 +38095,13 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -38119,7 +38119,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,28 +38177,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>202.7781168554911</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>260.4234789221541</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
